--- a/biology/Botanique/Phyllanthus_kidna/Phyllanthus_kidna.xlsx
+++ b/biology/Botanique/Phyllanthus_kidna/Phyllanthus_kidna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllanthus kidna Challen &amp; Petra Hoffm. est une espèce de plantes à fleurs de la famille des Phyllanthaceae et du genre Phyllanthus. C'est un arbre endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique kidna est le nom donné à la plante par la population Ewondo[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique kidna est le nom donné à la plante par la population Ewondo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phyllanthus kidna est un arbre d'environ 10 à 15 m, avec un diamètre à hauteur de poitrine de 15 à 20 cm, élargi à la base[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phyllanthus kidna est un arbre d'environ 10 à 15 m, avec un diamètre à hauteur de poitrine de 15 à 20 cm, élargi à la base.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été récoltée en 2002, en 2004, dans le parc de la Méfou (Mefou Proposed National Park), notamment sur la route allant vers Ndanan I (région du Centre), puis revue sur le même site en 2006 par Martin Cheek. En 2011 on ne lui connaissait pas d'autre localisation. C'est pourquoi elle a été évaluée à ce moment-là « en danger critique d'extinction » selon les critères de l'UICN[2]. Cependant, en 2017, elle ne figure pas sur la liste rouge de l'UICN[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été récoltée en 2002, en 2004, dans le parc de la Méfou (Mefou Proposed National Park), notamment sur la route allant vers Ndanan I (région du Centre), puis revue sur le même site en 2006 par Martin Cheek. En 2011 on ne lui connaissait pas d'autre localisation. C'est pourquoi elle a été évaluée à ce moment-là « en danger critique d'extinction » selon les critères de l'UICN. Cependant, en 2017, elle ne figure pas sur la liste rouge de l'UICN.
 </t>
         </is>
       </c>
